--- a/results/form1/results.xlsx
+++ b/results/form1/results.xlsx
@@ -26,15 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
   <si>
-    <t>EXAM  NUMBER</t>
-  </si>
-  <si>
-    <t>SUBJECT</t>
-  </si>
-  <si>
-    <t>SCORE</t>
-  </si>
-  <si>
     <t>AGRICULTURE</t>
   </si>
   <si>
@@ -69,6 +60,15 @@
   </si>
   <si>
     <t>0001</t>
+  </si>
+  <si>
+    <t>Exam Number</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Score</t>
   </si>
 </sst>
 </file>
@@ -401,7 +401,7 @@
   <dimension ref="A3:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -412,21 +412,21 @@
   <sheetData>
     <row r="3" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>90</v>
@@ -434,10 +434,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>80</v>
@@ -445,10 +445,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C6">
         <v>40</v>
@@ -456,10 +456,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C7">
         <v>30</v>
@@ -467,10 +467,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C8">
         <v>23</v>
@@ -478,10 +478,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C9">
         <v>28</v>
@@ -489,10 +489,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C10">
         <v>50</v>
@@ -500,10 +500,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C11">
         <v>80</v>
@@ -511,10 +511,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C12">
         <v>60</v>
@@ -522,10 +522,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C13">
         <v>38</v>
@@ -533,10 +533,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C14">
         <v>87</v>
